--- a/02_activities/assignments/Visualization_2.xlsx
+++ b/02_activities/assignments/Visualization_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duong\DSIPractice\visualization\02_activities\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A093525-6925-4C74-8104-17BD1F7F2682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDAEAE2-6E5A-4E6B-96F1-C71778D59FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
